--- a/docs/ST1/ST1_03.09.2024_output.xlsx
+++ b/docs/ST1/ST1_03.09.2024_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L76"/>
+  <dimension ref="A1:N76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731616347.8651648</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731616350.8565557</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731616347.8651648.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731616350.8565557.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>247.33</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>247.57</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.2399999999999807</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731616351.7310402</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731616355.1095188</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731616351.7310402.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731616355.1095188.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>247.3</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>247.48</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.1799999999999784</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -643,51 +671,57 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731616355.1244514</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731616355.692852</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731616355.1244514.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731616355.692852.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>247.48</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>246.36</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>1.119999999999976</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>0.45</v>
       </c>
     </row>
@@ -695,51 +729,57 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731616359.312014</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731616361.88214</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/SBER1731616359.312014.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/SBER1731616361.88214.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>247.33</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>247.57</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>0.2399999999999807</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -747,51 +787,57 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731616362.6321313</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731616365.6161206</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731616362.6321313.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731616365.6161206.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>247.3</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>247.48</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>0.1799999999999784</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -799,51 +845,57 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731616365.6310804</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731616366.1726198</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731616365.6310804.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731616366.1726198.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>247.48</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>246.36</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>1.119999999999976</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>0.45</v>
       </c>
     </row>
@@ -851,95 +903,107 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731616374.2361653</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>./test_images/SBER1731616374.2361653.png</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
+          <t>./test_images/SBER1731616374.2361653.png</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>248.03</v>
       </c>
-      <c r="J9" t="n">
-        <v>248.03</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>247.04</v>
+      </c>
+      <c r="M9" t="n">
+        <v>-0.9900000000000091</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-0.4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731616381.441355</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731616383.3554842</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731616381.441355.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731616383.3554842.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>124.46</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>124.47</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>0.01000000000000512</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -947,51 +1011,57 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731616383.37244</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731616384.536941</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731616383.37244.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731616384.536941.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>124.47</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>124.75</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>-0.2800000000000011</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>-0.22</v>
       </c>
     </row>
@@ -999,51 +1069,57 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731616384.5528922</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731616390.0106914</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731616384.5528922.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731616390.0106914.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>124.75</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>123.71</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>-1.040000000000006</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>-0.83</v>
       </c>
     </row>
@@ -1051,95 +1127,107 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731616390.026649</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>./test_images/GAZP1731616390.026649.png</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1731616390.026649.png</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>123.71</v>
       </c>
-      <c r="J13" t="n">
-        <v>123.71</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>123.4</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.3099999999999881</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731616391.6109972</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731616391.7067132</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731616391.6109972.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731616391.7067132.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>6111.5</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>6136.5</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>25</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>0.41</v>
       </c>
     </row>
@@ -1147,51 +1235,57 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731616391.9506767</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731616395.3627713</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731616391.9506767.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731616395.3627713.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>6116.5</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>6203.5</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>87</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>1.42</v>
       </c>
     </row>
@@ -1199,51 +1293,57 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731616395.3787286</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731616397.142615</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731616395.3787286.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731616397.142615.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>6203.5</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>6193.5</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>10</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -1251,51 +1351,57 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731616400.0594144</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731616402.2148077</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731616400.0594144.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731616402.2148077.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>6200</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>6186</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>-14</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>-0.23</v>
       </c>
     </row>
@@ -1303,51 +1409,57 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731616402.2307653</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731616403.2767854</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731616402.2307653.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731616403.2767854.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>6186</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>6171.5</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>14.5</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -1355,51 +1467,57 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731616404.1379445</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731616405.00401</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731616404.1379445.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731616405.00401.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>456.5</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>460.05</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>3.550000000000011</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>0.7799999999999999</v>
       </c>
     </row>
@@ -1407,51 +1525,57 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731616406.686799</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731616408.2500415</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731616406.686799.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731616408.2500415.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>464.5</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>465.3</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>0.8000000000000114</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -1459,95 +1583,107 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731616414.3793356</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731616414.3793356.png</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
+          <t>./test_images/ROSN1731616414.3793356.png</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>467.1</v>
       </c>
-      <c r="J21" t="n">
-        <v>467.1</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>465.9</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.200000000000045</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.26</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731616415.5403092</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731616418.6133788</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731616415.5403092.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731616418.6133788.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>190.13</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>193.7</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>-3.569999999999993</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>-1.88</v>
       </c>
     </row>
@@ -1555,51 +1691,57 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731616418.6293375</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731616420.5872836</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731616418.6293375.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731616420.5872836.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>193.7</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>195.9</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>2.200000000000017</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>1.14</v>
       </c>
     </row>
@@ -1607,51 +1749,57 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731616421.031123</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731616425.308169</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731616421.031123.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731616425.308169.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>195.21</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>194.14</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>-1.070000000000022</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>-0.5499999999999999</v>
       </c>
     </row>
@@ -1659,51 +1807,57 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731616425.324129</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731616426.004448</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731616425.324129.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731616426.004448.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>194.14</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>193.4</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>0.7399999999999807</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>0.38</v>
       </c>
     </row>
@@ -1711,51 +1865,57 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731616426.0204184</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731616426.8767736</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731616426.0204184.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731616426.8767736.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>193.4</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>193.35</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>-0.05000000000001137</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -1763,95 +1923,107 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731616426.892896</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>./test_images/MOEX1731616426.892896.png</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
+          <t>./test_images/MOEX1731616426.892896.png</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>193.35</v>
       </c>
-      <c r="J27" t="n">
-        <v>193.35</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>192.31</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.039999999999992</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.54</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731616433.9434788</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731616434.8116074</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731616433.9434788.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731616434.8116074.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>963.8</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>968.4</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>4.600000000000023</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
         <v>0.48</v>
       </c>
     </row>
@@ -1859,51 +2031,57 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731616435.702337</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731616436.0211568</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731616435.702337.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731616436.0211568.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>967.8</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>972.8</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>5</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29" t="n">
         <v>0.52</v>
       </c>
     </row>
@@ -1911,51 +2089,57 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731616436.827176</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731616437.8567193</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731616436.827176.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731616437.8567193.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>970.6</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>971</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>0.3999999999999773</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -1963,51 +2147,57 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731616437.873674</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731616438.3715572</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731616437.873674.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731616438.3715572.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>971</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>968.6</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>2.399999999999977</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -2015,51 +2205,57 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731616439.2536669</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731616439.7904415</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731616439.2536669.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731616439.7904415.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>966.2</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>963.4</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>2.800000000000068</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
         <v>0.29</v>
       </c>
     </row>
@@ -2067,51 +2263,57 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731616444.7749138</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731616445.8273978</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/CNY1731616444.7749138.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/CNY1731616445.8273978.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>11.992</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>11.981</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>0.01100000000000101</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -2119,51 +2321,57 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731616445.8443532</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731616446.5100846</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/CNY1731616445.8443532.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/CNY1731616446.5100846.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>11.981</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>11.993</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>0.01200000000000045</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -2171,51 +2379,57 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731616456.8790355</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731616458.964272</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731616456.8790355.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731616458.964272.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>106.02</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>106.6</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>0.5799999999999983</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35" t="n">
         <v>0.5499999999999999</v>
       </c>
     </row>
@@ -2223,51 +2437,57 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731616459.7898026</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731616460.8325534</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731616459.7898026.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731616460.8325534.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>106.42</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>107.32</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>0.8999999999999915</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36" t="n">
         <v>0.8500000000000001</v>
       </c>
     </row>
@@ -2275,51 +2495,57 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731616461.6138089</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731616464.100696</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731616461.6138089.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731616464.100696.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>107.02</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>105.86</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>-1.159999999999997</v>
       </c>
-      <c r="L37" t="n">
+      <c r="N37" t="n">
         <v>-1.08</v>
       </c>
     </row>
@@ -2327,95 +2553,107 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731616464.1176229</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>./test_images/GMKN1731616464.1176229.png</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
+          <t>./test_images/GMKN1731616464.1176229.png</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>105.86</v>
       </c>
-      <c r="J38" t="n">
-        <v>105.86</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>105.66</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.2000000000000028</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731616470.3927314</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731616471.285683</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731616470.3927314.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731616471.285683.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>130.42</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>130.48</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>0.06000000000000227</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -2423,51 +2661,57 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731616471.3026373</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731616472.230204</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731616471.3026373.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731616472.230204.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>130.48</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>129.88</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>0.5999999999999943</v>
       </c>
-      <c r="L40" t="n">
+      <c r="N40" t="n">
         <v>0.46</v>
       </c>
     </row>
@@ -2475,51 +2719,57 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731616478.888295</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731616481.5532482</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731616478.888295.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731616481.5532482.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>41.185</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>41.625</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>0.4399999999999977</v>
       </c>
-      <c r="L41" t="n">
+      <c r="N41" t="n">
         <v>1.07</v>
       </c>
     </row>
@@ -2527,51 +2777,57 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731616482.4240215</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731616483.3625028</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731616482.4240215.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731616483.3625028.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>41.585</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>41.555</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>-0.03000000000000114</v>
       </c>
-      <c r="L42" t="n">
+      <c r="N42" t="n">
         <v>-0.06999999999999999</v>
       </c>
     </row>
@@ -2579,51 +2835,57 @@
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731616483.3784502</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731616485.259834</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731616483.3784502.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731616485.259834.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>41.555</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>41.53</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>0.02499999999999858</v>
       </c>
-      <c r="L43" t="n">
+      <c r="N43" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -2631,95 +2893,107 @@
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731616487.853634</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1731616487.853634.png</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
+          <t>./test_images/MAGN1731616487.853634.png</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>41.085</v>
       </c>
-      <c r="J44" t="n">
-        <v>41.085</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>40.76</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.3250000000000028</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.79</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731616492.5480497</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731616493.6187704</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731616492.5480497.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731616493.6187704.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>1187.6</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>1208</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>20.40000000000009</v>
       </c>
-      <c r="L45" t="n">
+      <c r="N45" t="n">
         <v>1.72</v>
       </c>
     </row>
@@ -2727,51 +3001,57 @@
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731616494.1035545</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731616495.3678923</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731616494.1035545.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731616495.3678923.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>1201.6</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>1200.6</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>-1</v>
       </c>
-      <c r="L46" t="n">
+      <c r="N46" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -2779,51 +3059,57 @@
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731616495.3888361</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731616498.7956076</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731616495.3888361.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731616498.7956076.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>1200.6</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>1190.6</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>10</v>
       </c>
-      <c r="L47" t="n">
+      <c r="N47" t="n">
         <v>0.83</v>
       </c>
     </row>
@@ -2831,51 +3117,57 @@
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731616501.3019507</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731616502.0619073</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731616501.3019507.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731616502.0619073.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>47.07</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>47.43</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>0.3599999999999994</v>
       </c>
-      <c r="L48" t="n">
+      <c r="N48" t="n">
         <v>0.76</v>
       </c>
     </row>
@@ -2883,51 +3175,57 @@
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731616502.6671238</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731616507.0541995</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731616502.6671238.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731616507.0541995.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>47.37</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>48.15</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>0.7800000000000011</v>
       </c>
-      <c r="L49" t="n">
+      <c r="N49" t="n">
         <v>1.65</v>
       </c>
     </row>
@@ -2935,95 +3233,107 @@
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731616508.142268</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>./test_images/ALRS1731616508.142268.png</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr">
         <is>
+          <t>./test_images/ALRS1731616508.142268.png</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>48.39</v>
       </c>
-      <c r="J50" t="n">
-        <v>48.39</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0</v>
-      </c>
       <c r="L50" t="n">
-        <v>0</v>
+        <v>47.94</v>
+      </c>
+      <c r="M50" t="n">
+        <v>-0.4500000000000028</v>
+      </c>
+      <c r="N50" t="n">
+        <v>-0.9299999999999999</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731616515.8589034</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731616516.930292</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731616515.8589034.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731616516.930292.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>87.84</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>88.26000000000001</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>0.4200000000000017</v>
       </c>
-      <c r="L51" t="n">
+      <c r="N51" t="n">
         <v>0.48</v>
       </c>
     </row>
@@ -3031,51 +3341,57 @@
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731616519.010839</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731616522.857444</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731616519.010839.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731616522.857444.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>87.42</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>88.12</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>-0.7000000000000028</v>
       </c>
-      <c r="L52" t="n">
+      <c r="N52" t="n">
         <v>-0.8</v>
       </c>
     </row>
@@ -3083,51 +3399,57 @@
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731616527.6601157</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731616530.6801794</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/SELG1731616527.6601157.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/SELG1731616530.6801794.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>47.53</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>47.7</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>0.1700000000000017</v>
       </c>
-      <c r="L53" t="n">
+      <c r="N53" t="n">
         <v>0.36</v>
       </c>
     </row>
@@ -3135,51 +3457,57 @@
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731616530.6961668</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731616533.9236107</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/SELG1731616530.6961668.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/SELG1731616533.9236107.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>47.7</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>47.18</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>0.5200000000000031</v>
       </c>
-      <c r="L54" t="n">
+      <c r="N54" t="n">
         <v>1.09</v>
       </c>
     </row>
@@ -3187,51 +3515,57 @@
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731616534.7269433</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731616535.2026155</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/SELG1731616534.7269433.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/SELG1731616535.2026155.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>47.17</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>46.65</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>0.5200000000000031</v>
       </c>
-      <c r="L55" t="n">
+      <c r="N55" t="n">
         <v>1.1</v>
       </c>
     </row>
@@ -3239,51 +3573,57 @@
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731616537.3900266</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731616538.301587</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731616537.3900266.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731616538.301587.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>138.66</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>139.76</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>1.099999999999994</v>
       </c>
-      <c r="L56" t="n">
+      <c r="N56" t="n">
         <v>0.79</v>
       </c>
     </row>
@@ -3291,51 +3631,57 @@
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731616538.3176076</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731616539.9437988</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731616538.3176076.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731616539.9437988.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>139.76</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>139.64</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>0.1200000000000045</v>
       </c>
-      <c r="L57" t="n">
+      <c r="N57" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -3343,51 +3689,57 @@
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731616539.9597285</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731616541.816555</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731616539.9597285.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731616541.816555.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>139.64</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>139.48</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>-0.1599999999999966</v>
       </c>
-      <c r="L58" t="n">
+      <c r="N58" t="n">
         <v>-0.11</v>
       </c>
     </row>
@@ -3395,51 +3747,57 @@
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731616541.8335059</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731616543.2368455</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731616541.8335059.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731616543.2368455.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>139.48</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>139.8</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>-0.3200000000000216</v>
       </c>
-      <c r="L59" t="n">
+      <c r="N59" t="n">
         <v>-0.23</v>
       </c>
     </row>
@@ -3447,51 +3805,57 @@
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731616543.252803</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731616545.4639776</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731616543.252803.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731616545.4639776.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>139.8</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>138.16</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>-1.640000000000015</v>
       </c>
-      <c r="L60" t="n">
+      <c r="N60" t="n">
         <v>-1.17</v>
       </c>
     </row>
@@ -3499,95 +3863,107 @@
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731616545.480932</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>./test_images/SOFL1731616545.480932.png</t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr">
         <is>
+          <t>./test_images/SOFL1731616545.480932.png</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>138.16</v>
       </c>
-      <c r="J61" t="n">
-        <v>138.16</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0</v>
-      </c>
       <c r="L61" t="n">
-        <v>0</v>
+        <v>138.84</v>
+      </c>
+      <c r="M61" t="n">
+        <v>-0.6800000000000068</v>
+      </c>
+      <c r="N61" t="n">
+        <v>-0.49</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>MRKP</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731616549.781589</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731616551.3396723</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731616549.781589.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731616551.3396723.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>0.2794</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>0.2798</v>
       </c>
-      <c r="K62" t="n">
-        <v>0.0003999999999999559</v>
-      </c>
-      <c r="L62" t="n">
+      <c r="M62" t="n">
+        <v>0.0004000000000000115</v>
+      </c>
+      <c r="N62" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -3595,51 +3971,57 @@
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>MRKP</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731616551.3565984</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731616554.4219396</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731616551.3565984.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731616554.4219396.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>0.2798</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>0.2801</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>-0.0003000000000000225</v>
       </c>
-      <c r="L63" t="n">
+      <c r="N63" t="n">
         <v>-0.11</v>
       </c>
     </row>
@@ -3647,95 +4029,107 @@
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>MRKP</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731616554.4378693</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>./test_images/MRKP1731616554.4378693.png</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr">
         <is>
+          <t>./test_images/MRKP1731616554.4378693.png</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>0.2801</v>
       </c>
-      <c r="J64" t="n">
-        <v>0.2801</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0</v>
-      </c>
       <c r="L64" t="n">
-        <v>0</v>
+        <v>0.2766</v>
+      </c>
+      <c r="M64" t="n">
+        <v>-0.003500000000000003</v>
+      </c>
+      <c r="N64" t="n">
+        <v>-1.25</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731616557.155504</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1731616557.9926174</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731616557.155504.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731616557.9926174.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>15.012</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>15.18</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>0.1679999999999993</v>
       </c>
-      <c r="L65" t="n">
+      <c r="N65" t="n">
         <v>1.12</v>
       </c>
     </row>
@@ -3743,51 +4137,57 @@
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731616559.32923</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1731616561.456523</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731616559.32923.png</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731616561.456523.png</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>15.282</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>15.351</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>0.06900000000000084</v>
       </c>
-      <c r="L66" t="n">
+      <c r="N66" t="n">
         <v>0.45</v>
       </c>
     </row>
@@ -3795,51 +4195,57 @@
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731616561.4734771</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1731616566.2035413</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731616561.4734771.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731616566.2035413.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>15.351</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>15.281</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>0.07000000000000028</v>
       </c>
-      <c r="L67" t="n">
+      <c r="N67" t="n">
         <v>0.46</v>
       </c>
     </row>
@@ -3847,95 +4253,107 @@
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731616568.7522013</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>./test_images/AFKS1731616568.7522013.png</t>
         </is>
       </c>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr">
         <is>
+          <t>./test_images/AFKS1731616568.7522013.png</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>15.163</v>
       </c>
-      <c r="J68" t="n">
-        <v>15.163</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0</v>
-      </c>
       <c r="L68" t="n">
-        <v>0</v>
+        <v>15.113</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0.05000000000000071</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1731616571.2822566</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>1731616572.0841343</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731616571.2822566.png</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731616572.0841343.png</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>646.5</v>
       </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>651.8</v>
       </c>
-      <c r="K69" t="n">
+      <c r="M69" t="n">
         <v>5.299999999999955</v>
       </c>
-      <c r="L69" t="n">
+      <c r="N69" t="n">
         <v>0.8200000000000001</v>
       </c>
     </row>
@@ -3943,51 +4361,57 @@
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1731616573.0590112</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>1731616573.2648594</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731616573.0590112.png</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731616573.2648594.png</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>650.2</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>652.5</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
         <v>2.299999999999955</v>
       </c>
-      <c r="L70" t="n">
+      <c r="N70" t="n">
         <v>0.35</v>
       </c>
     </row>
@@ -3995,51 +4419,57 @@
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1731616574.2594059</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>1731616575.3721201</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731616574.2594059.png</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731616575.3721201.png</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>653.05</v>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>653.6</v>
       </c>
-      <c r="K71" t="n">
+      <c r="M71" t="n">
         <v>0.5500000000000682</v>
       </c>
-      <c r="L71" t="n">
+      <c r="N71" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -4047,51 +4477,57 @@
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1731616575.3890762</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>1731616577.2399235</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731616575.3890762.png</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731616577.2399235.png</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>653.6</v>
       </c>
-      <c r="J72" t="n">
+      <c r="L72" t="n">
         <v>652.8</v>
       </c>
-      <c r="K72" t="n">
+      <c r="M72" t="n">
         <v>0.8000000000000682</v>
       </c>
-      <c r="L72" t="n">
+      <c r="N72" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -4099,51 +4535,57 @@
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1731616577.2568507</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>1731616579.2865222</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731616577.2568507.png</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731616579.2865222.png</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
         <v>652.8</v>
       </c>
-      <c r="J73" t="n">
+      <c r="L73" t="n">
         <v>651.3</v>
       </c>
-      <c r="K73" t="n">
+      <c r="M73" t="n">
         <v>-1.5</v>
       </c>
-      <c r="L73" t="n">
+      <c r="N73" t="n">
         <v>-0.23</v>
       </c>
     </row>
@@ -4151,51 +4593,57 @@
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>1731616579.3044765</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>1731616579.921118</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731616579.3044765.png</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731616579.921118.png</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
         <v>651.3</v>
       </c>
-      <c r="J74" t="n">
+      <c r="L74" t="n">
         <v>647.5</v>
       </c>
-      <c r="K74" t="n">
+      <c r="M74" t="n">
         <v>3.799999999999955</v>
       </c>
-      <c r="L74" t="n">
+      <c r="N74" t="n">
         <v>0.58</v>
       </c>
     </row>
@@ -4203,51 +4651,57 @@
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>1731616582.3806763</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>1731616585.1493897</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731616582.3806763.png</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731616585.1493897.png</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
         <v>113.67</v>
       </c>
-      <c r="J75" t="n">
+      <c r="L75" t="n">
         <v>114.11</v>
       </c>
-      <c r="K75" t="n">
+      <c r="M75" t="n">
         <v>0.4399999999999977</v>
       </c>
-      <c r="L75" t="n">
+      <c r="N75" t="n">
         <v>0.39</v>
       </c>
     </row>
@@ -4255,51 +4709,57 @@
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>1731616585.1663446</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>1731616590.0985506</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731616585.1663446.png</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731616590.0985506.png</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
         <v>114.11</v>
       </c>
-      <c r="J76" t="n">
+      <c r="L76" t="n">
         <v>113.84</v>
       </c>
-      <c r="K76" t="n">
+      <c r="M76" t="n">
         <v>0.269999999999996</v>
       </c>
-      <c r="L76" t="n">
+      <c r="N76" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -4361,19 +4821,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.750000000000028</v>
+        <v>-0.7100000000000364</v>
       </c>
       <c r="C2" t="n">
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.2916666666666714</v>
+        <v>-0.1183333333333394</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.9399999999999999</v>
+        <v>-0.3999999999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.16</v>
+        <v>-0.07000000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4843,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.9000000000000341</v>
+        <v>-1.580000000000041</v>
       </c>
       <c r="C3" t="n">
         <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.1500000000000057</v>
+        <v>-0.2633333333333401</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.6299999999999999</v>
+        <v>-1.12</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1</v>
+        <v>-0.19</v>
       </c>
     </row>
     <row r="4">
@@ -4471,19 +4931,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4349999999999952</v>
+        <v>0.759999999999998</v>
       </c>
       <c r="C7" t="n">
         <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1087499999999988</v>
+        <v>0.1899999999999995</v>
       </c>
       <c r="E7" t="n">
-        <v>1.06</v>
+        <v>1.85</v>
       </c>
       <c r="F7" t="n">
-        <v>0.26</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="8">
@@ -4493,19 +4953,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.539999999999935</v>
+        <v>0.5499999999999261</v>
       </c>
       <c r="C8" t="n">
         <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3849999999999838</v>
+        <v>0.1374999999999815</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6199999999999999</v>
+        <v>0.2199999999999999</v>
       </c>
       <c r="F8" t="n">
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="9">
@@ -4515,19 +4975,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.3070000000000004</v>
+        <v>0.3570000000000011</v>
       </c>
       <c r="C9" t="n">
         <v>4</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0767500000000001</v>
+        <v>0.08925000000000027</v>
       </c>
       <c r="E9" t="n">
-        <v>2.03</v>
+        <v>2.36</v>
       </c>
       <c r="F9" t="n">
-        <v>0.51</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="10">
@@ -4537,19 +4997,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.3199999999999932</v>
+        <v>0.519999999999996</v>
       </c>
       <c r="C10" t="n">
         <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>0.07999999999999829</v>
+        <v>0.129999999999999</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3199999999999998</v>
+        <v>0.5099999999999998</v>
       </c>
       <c r="F10" t="n">
-        <v>0.08</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="11">
@@ -4559,19 +5019,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1.310000000000002</v>
+        <v>-1.000000000000014</v>
       </c>
       <c r="C11" t="n">
         <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.3275000000000006</v>
+        <v>-0.2500000000000036</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.04</v>
+        <v>-0.7899999999999999</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.26</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="12">
@@ -4581,19 +5041,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9.999999999993348e-05</v>
+        <v>-0.003400000000000014</v>
       </c>
       <c r="C12" t="n">
         <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>3.333333333331116e-05</v>
+        <v>-0.001133333333333338</v>
       </c>
       <c r="E12" t="n">
-        <v>0.02999999999999999</v>
+        <v>-1.22</v>
       </c>
       <c r="F12" t="n">
-        <v>0.01</v>
+        <v>-0.41</v>
       </c>
     </row>
     <row r="13">
@@ -4603,19 +5063,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.140000000000001</v>
+        <v>0.6899999999999977</v>
       </c>
       <c r="C13" t="n">
         <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3800000000000002</v>
+        <v>0.2299999999999992</v>
       </c>
       <c r="E13" t="n">
-        <v>2.41</v>
+        <v>1.48</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="14">
@@ -4625,19 +5085,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4.350000000000023</v>
+        <v>5.550000000000068</v>
       </c>
       <c r="C14" t="n">
         <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>1.450000000000008</v>
+        <v>1.850000000000023</v>
       </c>
       <c r="E14" t="n">
-        <v>0.95</v>
+        <v>1.21</v>
       </c>
       <c r="F14" t="n">
-        <v>0.32</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="15">
